--- a/worksheet2.xlsx
+++ b/worksheet2.xlsx
@@ -219,11 +219,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,11 +235,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,11 +251,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,7 +267,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,10 +351,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -394,7 +394,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>475</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">1423+488</f>
@@ -429,7 +429,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>43922</v>
+        <v>43925</v>
       </c>
       <c r="B5" s="6" t="n">
         <f aca="false">1423+488</f>
@@ -446,7 +446,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">D6</f>
@@ -465,7 +465,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B7" s="6" t="n">
         <f aca="false">1423+488</f>
@@ -482,7 +482,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B8" s="6" t="n">
         <f aca="false">D8</f>
@@ -500,222 +500,95 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43923</v>
-      </c>
-      <c r="B9" s="11" t="n">
-        <v>500</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="13" t="n">
-        <f aca="false">B9</f>
-        <v>500</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <f aca="false">B9-J9+1</f>
-        <v>501</v>
-      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43923</v>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>501</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>45.562</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="14" t="n">
-        <f aca="false">B10-J10+1</f>
-        <v>502</v>
-      </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43923</v>
-      </c>
-      <c r="B11" s="11" t="n">
-        <v>510</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>67.35</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="14" t="n">
-        <f aca="false">B11-J11+1</f>
-        <v>511</v>
-      </c>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B12" s="15" t="n">
-        <v>458</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="17" t="n">
-        <f aca="false">B12</f>
-        <v>458</v>
-      </c>
-      <c r="E12" s="18" t="n">
-        <f aca="false">B12-J12+1</f>
-        <v>459</v>
-      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B13" s="15" t="n">
-        <v>459</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="17" t="n">
-        <f aca="false">B13</f>
-        <v>459</v>
-      </c>
-      <c r="E13" s="18" t="n">
-        <f aca="false">B13-J13+1</f>
-        <v>460</v>
-      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B14" s="15" t="n">
-        <v>499</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="17" t="n">
-        <f aca="false">B14</f>
-        <v>499</v>
-      </c>
-      <c r="E14" s="18" t="n">
-        <f aca="false">B14-J14+1</f>
-        <v>500</v>
-      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B15" s="19" t="n">
-        <v>459</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="21" t="n">
-        <f aca="false">B15</f>
-        <v>459</v>
-      </c>
-      <c r="E15" s="22" t="n">
-        <f aca="false">B15-J15+1</f>
-        <v>460</v>
-      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>43922</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="7" t="n">
-        <f aca="false">B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <f aca="false">B16-J16+1</f>
-        <v>1</v>
-      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <f aca="false">B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <f aca="false">B17-J17+1</f>
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <f aca="false">B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <f aca="false">B18-J18+1</f>
-        <v>1</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B19" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="23"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="25" t="n">
-        <f aca="false">B19-D19</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B20" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="23"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="25" t="n">
-        <f aca="false">B20-D20</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B21" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="23"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="25" t="n">
-        <f aca="false">B21-D21</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B22" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="23"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="25" t="n">
-        <f aca="false">B22-D22</f>
-        <v>0</v>
-      </c>
+      <c r="E22" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
